--- a/benchmarks/benchmarks.xlsx
+++ b/benchmarks/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbontempo/github/btreemap/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBD9699-EE8C-724E-8848-F71C0B152731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABD4052-D846-5D4C-8EDE-E3881A4252FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{DE924397-8A78-4C4A-834C-FF67B17ADDB8}"/>
   </bookViews>
